--- a/data/Information_types.xlsx
+++ b/data/Information_types.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Original Article</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Brief report</t>
+  </si>
+  <si>
+    <t>Letter to Editor</t>
+  </si>
+  <si>
+    <t>Special</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,79 +467,106 @@
     <col min="1" max="1" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>593</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>406</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -541,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -549,7 +582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -557,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -565,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -573,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -581,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
